--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="5955" windowWidth="14835" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="5955" windowWidth="14475" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCaseResults" r:id="rId2" sheetId="2"/>
-    <sheet name="TestCaseData" r:id="rId3" sheetId="3"/>
+    <sheet name="TestCaseResults" r:id="rId1" sheetId="2"/>
+    <sheet name="TestCaseData" r:id="rId2" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N17"/>
+  <oleSize ref="A1:M17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -40,7 +39,7 @@
     <t>9290543618</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>BookTicketTest</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -90,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,23 +112,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
@@ -137,10 +125,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -446,95 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9290543618</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2" type="list">
-      <formula1>"Accessories, iMacs, iPads, iPhones"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2" type="list">
-      <formula1>"Product 1, Product 2, Product 3, Product 4"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -567,12 +466,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +503,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
